--- a/Frameworks/data/Book1.xlsx
+++ b/Frameworks/data/Book1.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QSPIDERS\Selenium GIT\Selenium\Frameworks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5D341-B95E-48D4-B4EE-68C91314F1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55157D5-88AF-4AAE-9719-E45652C15D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4008" yWindow="3792" windowWidth="17280" windowHeight="8568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>abcd</t>
   </si>
@@ -49,12 +49,16 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>ninad new updated text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,13 +373,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -414,8 +418,8 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>54661</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
